--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_30_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_30_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.4216934127674365, 4.083181334989297]</t>
+          <t>[3.4113467704403595, 4.093527977316374]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.018111302137610252, 0.3264811256836406]</t>
+          <t>[-0.01823917113631035, 0.3266089946823407]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.07818477095642895</v>
+        <v>0.07839845963915537</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07818477095642895</v>
+        <v>0.07839845963915537</v>
       </c>
       <c r="W2" t="n">
         <v>2.650050050050076</v>
